--- a/biology/Zoologie/Gastrophrynoides/Gastrophrynoides.xlsx
+++ b/biology/Zoologie/Gastrophrynoides/Gastrophrynoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrophrynoides est un genre qui regroupe deux espèces d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrophrynoides est un genre qui regroupe deux espèces d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de ce genre se rencontrent dans le sud de la péninsule Malaise et sur l'île de Bornéo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de ce genre se rencontrent dans le sud de la péninsule Malaise et sur l'île de Bornéo.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce genre a été créé initialement pour l'espèce Gastrophrynoides borneensis notamment au regard des différences suivantes vis-à-vis des espèces apparentées :
 la présence d'un cartilage procoracoïde ;
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (18 septembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (18 septembre 2013) :
 Gastrophrynoides borneensis (Boulenger, 1897)
 Gastrophrynoides immaculatus Chan, Grismer, Norhayati &amp; Daicus, 2009</t>
         </is>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Noble, 1926 : An analysis of the remarkable cases of distribution among the Amphibia, with description of new genera. American Museum Novitates, no 212, p. 1-24 (texte intégral).</t>
         </is>
